--- a/xlsx/雷克斯·提勒森_intext.xlsx
+++ b/xlsx/雷克斯·提勒森_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
   <si>
     <t>雷克斯·提勒森</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国国务卿列表</t>
   </si>
   <si>
-    <t>政策_政策_美國_雷克斯·提勒森</t>
+    <t>政策_政策_美国_雷克斯·提勒森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E5%8D%BF</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%87%B1%E7%91%9E</t>
   </si>
   <si>
-    <t>約翰·凱瑞</t>
+    <t>约翰·凯瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%85%8B%E6%A3%AE%E7%BE%8E%E5%AD%9A</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
+    <t>董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CEO</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%A0%A1</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>理學士</t>
+    <t>理学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B7%B9%E7%B4%9A%E7%AB%A5%E8%BB%8D</t>
   </si>
   <si>
-    <t>鷹級童軍</t>
+    <t>鹰级童军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Order_of_Friendship</t>
@@ -155,15 +155,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E5%8D%BF</t>
   </si>
   <si>
-    <t>美國國務卿</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Exxon</t>
   </si>
   <si>
@@ -173,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E5%A4%A7%E5%AD%B8%E5%A5%A7%E6%96%AF%E6%B1%80%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>德州大學奧斯汀分校</t>
+    <t>德州大学奥斯汀分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%9C%A8%E5%B7%A5%E7%A8%8B</t>
@@ -203,25 +197,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AB%A5%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國童軍</t>
+    <t>美国童军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE%E7%AB%B6%E9%81%B8%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>2016年唐納·川普競選美國總統</t>
+    <t>2016年唐纳·川普竞选美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>俄羅斯總統</t>
+    <t>俄罗斯总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%8B%89%E8%BF%AA%E7%B1%B3%E7%88%BE%C2%B7%E4%BD%9B%E6%8B%89%E8%BF%AA%E7%B1%B3%E7%BE%85%E7%B6%AD%E5%A5%87%C2%B7%E6%99%AE%E4%B8%81</t>
   </si>
   <si>
-    <t>佛拉迪米爾·佛拉迪米羅維奇·普丁</t>
+    <t>佛拉迪米尔·佛拉迪米罗维奇·普丁</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_sanctions_during_the_Ukrainian_crisis</t>
@@ -239,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%A5%87%E6%89%98%E7%A6%8F%E7%88%BE%E6%96%AF_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>威奇托福爾斯 (德克薩斯州)</t>
+    <t>威奇托福尔斯 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rex_Allen</t>
@@ -251,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%9F%8B%E6%81%A9</t>
   </si>
   <si>
-    <t>約翰·韋恩</t>
+    <t>约翰·韦恩</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Vernon,_Texas</t>
@@ -275,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%9A%96%E5%8C%96</t>
@@ -305,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E5%BE%B7%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納德·川普</t>
+    <t>唐纳德·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%86%85%E9%98%81%E5%88%97%E8%A1%A8</t>
@@ -317,19 +311,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%B2%A1%E6%94%BF%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國財政部長</t>
+    <t>美国财政部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E6%A2%85%E5%8A%AA%E6%AC%BD</t>
   </si>
   <si>
-    <t>史蒂芬·梅努欽</t>
+    <t>史蒂芬·梅努钦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國國防部長</t>
+    <t>美国国防部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%A9%AC%E8%92%82%E6%96%AF</t>
@@ -341,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國司法部長</t>
+    <t>美国司法部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%A4%AB%C2%B7%E5%A1%9E%E7%94%B3%E6%96%AF</t>
   </si>
   <si>
-    <t>傑夫·塞申斯</t>
+    <t>杰夫·塞申斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8%E9%95%BF</t>
@@ -359,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%AE%89%C2%B7%E6%B4%A5%E5%87%B1</t>
   </si>
   <si>
-    <t>瑞安·津凱</t>
+    <t>瑞安·津凯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%83%A8%E9%95%BF</t>
@@ -395,25 +389,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E9%98%BF%E7%A7%91%E6%96%AF%E5%A1%94</t>
   </si>
   <si>
-    <t>亞歷山大·阿科斯塔</t>
+    <t>亚历山大·阿科斯塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%9B%E7%94%9F%E5%8F%8A%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8B%99%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國衛生及公共服務部長</t>
+    <t>美国卫生及公共服务部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%A7%86%C2%B7%E6%99%AE%E8%90%8A%E6%96%AF</t>
   </si>
   <si>
-    <t>湯姆·普萊斯</t>
+    <t>汤姆·普莱斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國教育部長</t>
+    <t>美国教育部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E7%90%AA%C2%B7%E5%BE%B7%E6%B2%83%E6%96%AF</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%8F%E6%88%BF%E8%88%87%E5%9F%8E%E5%B8%82%E7%99%BC%E5%B1%95%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國住房與城市發展部長</t>
+    <t>美国住房与城市发展部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%C2%B7%E5%8D%A1%E6%A3%AE</t>
@@ -443,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%99%E5%B0%8F%E8%98%AD</t>
   </si>
   <si>
-    <t>趙小蘭</t>
+    <t>赵小兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國能源部長</t>
+    <t>美国能源部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%85%8B%C2%B7%E4%BD%A9%E9%87%8C</t>
@@ -485,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%89%AF%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國副總統</t>
+    <t>美国副总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%85%8B%C2%B7%E5%BD%AD%E6%96%AF</t>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E5%B9%95%E5%83%9A%E9%95%B7</t>
   </si>
   <si>
-    <t>白宮幕僚長</t>
+    <t>白宫幕僚长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%96%E5%9B%A0%E6%96%AF%C2%B7%E6%99%AE%E9%87%8C%E5%B7%B4%E6%96%AF</t>
@@ -515,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%80%83%E7%89%B9%C2%B7%E6%99%AE%E9%AD%AF%E4%BC%8A%E7%89%B9</t>
   </si>
   <si>
-    <t>史考特·普魯伊特</t>
+    <t>史考特·普鲁伊特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E7%AE%A1%E7%90%86%E5%92%8C%E9%A2%84%E7%AE%97%E5%B1%80</t>
@@ -527,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E9%A6%AC%E7%93%A6%E5%B0%BC</t>
   </si>
   <si>
-    <t>麥克·馬瓦尼</t>
+    <t>麦克·马瓦尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%B8%E6%98%93%E4%BB%A3%E8%A1%A8</t>
@@ -557,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E7%B6%93%E6%BF%9F%E9%A1%A7%E5%95%8F%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美國總統經濟顧問委員會</t>
+    <t>美国总统经济顾问委员会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cabinet_of_Donald_Trump</t>
@@ -575,15 +569,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E7%B9%BC%E4%BB%BB%E9%A0%86%E5%BA%8F</t>
   </si>
   <si>
-    <t>美國總統繼任順序</t>
+    <t>美国总统继任顺序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
   </si>
   <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2%E8%AE%AE%E9%95%BF</t>
   </si>
   <si>
@@ -593,39 +584,30 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%90%8A%E6%81%A9</t>
   </si>
   <si>
-    <t>保羅·萊恩</t>
+    <t>保罗·莱恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
   </si>
   <si>
-    <t>美國參議院臨時議長</t>
+    <t>美国参议院临时议长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%C2%B7%E5%93%88%E5%A5%87</t>
   </si>
   <si>
-    <t>奧林·哈奇</t>
+    <t>奥林·哈奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8%E9%95%BF</t>
   </si>
   <si>
-    <t>美国财政部长</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8%E9%95%BF</t>
   </si>
   <si>
-    <t>美国国防部长</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%BF</t>
   </si>
   <si>
-    <t>美国司法部长</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E5%8F%8A%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8A%A1%E9%83%A8</t>
   </si>
   <si>
@@ -641,9 +623,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B5%E5%B0%8F%E5%85%B0</t>
   </si>
   <si>
-    <t>赵小兰</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Natural-born-citizen_clause</t>
   </si>
   <si>
@@ -653,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/20%E5%9C%8B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>20國集團</t>
+    <t>20国集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E9%83%A8%E9%95%BF</t>
@@ -671,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%85%A7%E8%98%AD</t>
   </si>
   <si>
-    <t>方慧蘭</t>
+    <t>方慧兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E6%AF%85</t>
@@ -701,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%82%91%E5%88%A9%E8%AB%BE%C2%B7%E9%98%BF%E7%88%BE%E6%B3%95%E8%AB%BE</t>
   </si>
   <si>
-    <t>安傑利諾·阿爾法諾</t>
+    <t>安杰利诺·阿尔法诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E9%87%8E%E5%A4%AA%E9%83%8E</t>
@@ -1749,7 +1728,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -1775,10 +1754,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1804,10 +1783,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>12</v>
@@ -1833,10 +1812,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1862,10 +1841,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -1891,10 +1870,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1920,10 +1899,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1949,10 +1928,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1978,10 +1957,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>5</v>
@@ -2036,10 +2015,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2065,10 +2044,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2094,10 +2073,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2123,10 +2102,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2152,10 +2131,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2181,10 +2160,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2210,10 +2189,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2239,10 +2218,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2268,10 +2247,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2297,10 +2276,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2326,10 +2305,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2355,10 +2334,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2384,10 +2363,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2413,10 +2392,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2442,10 +2421,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2471,10 +2450,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2500,10 +2479,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>5</v>
@@ -2529,10 +2508,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2558,10 +2537,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2587,10 +2566,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2616,10 +2595,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2645,10 +2624,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2674,10 +2653,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2703,10 +2682,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2732,10 +2711,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2761,10 +2740,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2790,10 +2769,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2819,10 +2798,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2848,10 +2827,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2877,10 +2856,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2906,10 +2885,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2935,10 +2914,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -2964,10 +2943,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2993,10 +2972,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3022,10 +3001,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3051,10 +3030,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3080,10 +3059,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3109,10 +3088,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3138,10 +3117,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3167,10 +3146,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3196,10 +3175,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3225,10 +3204,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3254,10 +3233,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3283,10 +3262,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3312,10 +3291,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3341,10 +3320,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3370,10 +3349,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3399,10 +3378,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3428,10 +3407,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3457,10 +3436,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3486,10 +3465,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3515,10 +3494,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3544,10 +3523,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3573,10 +3552,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3602,10 +3581,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3631,10 +3610,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3660,10 +3639,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3689,10 +3668,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3718,10 +3697,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3747,10 +3726,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3776,10 +3755,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3805,10 +3784,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3834,10 +3813,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3863,10 +3842,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3892,10 +3871,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3921,10 +3900,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F98" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3950,10 +3929,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3979,10 +3958,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4008,10 +3987,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4037,10 +4016,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4095,10 +4074,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4124,10 +4103,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4153,10 +4132,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4182,10 +4161,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F107" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4211,10 +4190,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4240,10 +4219,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F109" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4269,10 +4248,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F110" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4298,10 +4277,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F111" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4327,10 +4306,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F112" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4356,10 +4335,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4385,10 +4364,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F114" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4414,10 +4393,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F115" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4443,10 +4422,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F116" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4472,10 +4451,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F117" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4501,10 +4480,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F118" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4530,10 +4509,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F119" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4559,10 +4538,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F120" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4588,10 +4567,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F121" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4617,10 +4596,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F122" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4646,10 +4625,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F123" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4675,10 +4654,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F124" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4704,10 +4683,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F125" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4733,10 +4712,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F126" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4762,10 +4741,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F127" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4791,10 +4770,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F128" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4820,10 +4799,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F129" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4849,10 +4828,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F130" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4878,10 +4857,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F131" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4907,10 +4886,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F132" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -4936,10 +4915,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F133" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -4965,10 +4944,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F134" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G134" t="n">
         <v>4</v>
@@ -4994,10 +4973,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F135" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
